--- a/Vanti/1.Data/Asistencias_hogar.xlsx
+++ b/Vanti/1.Data/Asistencias_hogar.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesara.saavedravanegas/Documents/GitHub/MindLabs/Vanti/1.Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7109EC-EA19-1D43-ABC6-246E1F40BB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA660803-3CC6-0042-87CD-134FCBFFBEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$V$69</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="105">
   <si>
     <t>respondent_id</t>
   </si>
@@ -49,18 +52,6 @@
     <t>custom_1</t>
   </si>
   <si>
-    <t>Si este seguro tuviera un precio de $18.990 ¿estarías dispuesto(a) a pagarlo?</t>
-  </si>
-  <si>
-    <t>Si este seguro tuviera un precio de $21.990 ¿estarías dispuesto(a) a pagarlo?</t>
-  </si>
-  <si>
-    <t>Si este seguro tuviera un precio de $29.990 ¿estarías dispuesto(a) a pagarlo?</t>
-  </si>
-  <si>
-    <t>Si este seguro tuviera un precio de $32.990 ¿estarías dispuesto(a) a pagarlo?</t>
-  </si>
-  <si>
     <t>Nombre Completo</t>
   </si>
   <si>
@@ -335,6 +326,18 @@
   </si>
   <si>
     <t>Valor_dispuesto</t>
+  </si>
+  <si>
+    <t>Si_18.990</t>
+  </si>
+  <si>
+    <t>Si_21.990</t>
+  </si>
+  <si>
+    <t>Si_29.990</t>
+  </si>
+  <si>
+    <t>Si_32.990</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="O12" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,43 +769,43 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -819,25 +822,25 @@
         <v>45497.600023148145</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>10000</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
       <c r="U2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -854,25 +857,25 @@
         <v>45497.599699074075</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>12000</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M3">
         <v>14000</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -889,22 +892,22 @@
         <v>45497.599583333336</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>15000</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>15000</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U4">
         <v>12</v>
@@ -924,25 +927,25 @@
         <v>45497.599456018521</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <v>12000</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M5">
         <v>12000</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -959,25 +962,25 @@
         <v>45497.599456018521</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K6">
         <v>15000</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M6">
         <v>1500</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -994,25 +997,25 @@
         <v>45497.599027777775</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>10000</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1029,22 +1032,22 @@
         <v>45497.598935185182</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K8">
         <v>15000</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1061,25 +1064,25 @@
         <v>45497.593854166669</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>12000</v>
       </c>
       <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
         <v>16</v>
       </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" t="s">
-        <v>20</v>
-      </c>
       <c r="U9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1096,22 +1099,22 @@
         <v>45497.593854166669</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>25000</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O10">
         <v>20000</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U10">
         <v>12</v>
@@ -1131,25 +1134,25 @@
         <v>45497.59375</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>15000</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O11">
         <v>15000</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1166,25 +1169,25 @@
         <v>45497.593356481484</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>15000</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -1201,25 +1204,25 @@
         <v>45497.593344907407</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>15000</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O13">
         <v>15000</v>
       </c>
       <c r="T13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1236,25 +1239,25 @@
         <v>45497.593240740738</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>14000</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O14">
         <v>15000</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1271,22 +1274,22 @@
         <v>45497.593171296299</v>
       </c>
       <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
         <v>34</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
       </c>
       <c r="K15">
         <v>20000</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1303,22 +1306,22 @@
         <v>45497.586261574077</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>15000</v>
       </c>
       <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" t="s">
         <v>16</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" t="s">
-        <v>20</v>
       </c>
       <c r="U16">
         <v>12</v>
@@ -1338,25 +1341,25 @@
         <v>45497.585972222223</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>35000</v>
       </c>
       <c r="P17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q17">
         <v>35000</v>
       </c>
       <c r="T17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1373,25 +1376,25 @@
         <v>45497.585555555554</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>20000</v>
       </c>
       <c r="P18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q18">
         <v>20000</v>
       </c>
       <c r="T18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1408,25 +1411,25 @@
         <v>45497.585428240738</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>16000</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q19">
         <v>19000</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1443,25 +1446,25 @@
         <v>45497.585289351853</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>15000</v>
       </c>
       <c r="P20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q20">
         <v>15000</v>
       </c>
       <c r="T20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -1478,25 +1481,25 @@
         <v>45497.584999999999</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>15000</v>
       </c>
       <c r="P21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q21">
         <v>15000</v>
       </c>
       <c r="T21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1513,25 +1516,25 @@
         <v>45497.584849537037</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>20000</v>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -1548,22 +1551,22 @@
         <v>45497.579664351855</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>4000</v>
       </c>
       <c r="R23" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S23">
         <v>40000</v>
       </c>
       <c r="T23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U23">
         <v>12</v>
@@ -1583,25 +1586,25 @@
         <v>45497.579641203702</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>12000</v>
       </c>
       <c r="R24" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S24">
         <v>12000</v>
       </c>
       <c r="T24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="U24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -1618,25 +1621,25 @@
         <v>45497.578958333332</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>12000</v>
       </c>
       <c r="R25" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S25">
         <v>12000</v>
       </c>
       <c r="T25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1653,25 +1656,25 @@
         <v>45497.578888888886</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K26">
         <v>12000</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M26">
         <v>16000</v>
       </c>
       <c r="T26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -1688,25 +1691,25 @@
         <v>45497.578831018516</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>11900</v>
       </c>
       <c r="R27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S27">
         <v>15000</v>
       </c>
       <c r="T27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -1723,25 +1726,25 @@
         <v>45497.578773148147</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>15000</v>
       </c>
       <c r="R28" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S28">
         <v>20000</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -1758,22 +1761,22 @@
         <v>45497.578043981484</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>30000</v>
       </c>
       <c r="R29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -1790,25 +1793,25 @@
         <v>45492.595555555556</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>20000</v>
       </c>
       <c r="R30" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -1825,22 +1828,22 @@
         <v>45492.595509259256</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>18000</v>
       </c>
       <c r="R31" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U31">
         <v>12</v>
@@ -1860,25 +1863,25 @@
         <v>45492.595497685186</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>20000</v>
       </c>
       <c r="R32" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S32">
         <v>20000</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -1895,25 +1898,25 @@
         <v>45492.595451388886</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>12000</v>
       </c>
       <c r="R33" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -1930,22 +1933,22 @@
         <v>45492.595416666663</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>20000</v>
       </c>
       <c r="R34" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S34">
         <v>20000</v>
       </c>
       <c r="T34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U34">
         <v>12</v>
@@ -1965,19 +1968,22 @@
         <v>45492.595381944448</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>20000</v>
       </c>
+      <c r="R35" t="s">
+        <v>28</v>
+      </c>
       <c r="T35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -1994,25 +2000,25 @@
         <v>45492.595358796294</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>20000</v>
       </c>
       <c r="R36" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S36">
         <v>20000</v>
       </c>
       <c r="T36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -2029,25 +2035,25 @@
         <v>45492.595358796294</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>15000</v>
       </c>
       <c r="R37" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S37">
         <v>15000</v>
       </c>
       <c r="T37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -2064,25 +2070,25 @@
         <v>45492.595335648148</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>25000</v>
       </c>
       <c r="R38" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S38">
         <v>25000</v>
       </c>
       <c r="T38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -2099,22 +2105,22 @@
         <v>45492.595196759263</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U39">
         <v>2</v>
@@ -2134,22 +2140,22 @@
         <v>45492.592743055553</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>20000</v>
       </c>
       <c r="P40" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U40">
         <v>12</v>
@@ -2169,22 +2175,22 @@
         <v>45492.592638888891</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>15000</v>
       </c>
       <c r="P41" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q41">
         <v>15000</v>
       </c>
       <c r="T41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U41">
         <v>1200</v>
@@ -2204,19 +2210,19 @@
         <v>45492.592638888891</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>20000</v>
       </c>
       <c r="P42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U42">
         <v>12</v>
@@ -2236,25 +2242,25 @@
         <v>45492.592581018522</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>120000</v>
       </c>
       <c r="P43" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -2271,25 +2277,25 @@
         <v>45492.592523148145</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>25000</v>
       </c>
       <c r="P44" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q44">
         <v>25000</v>
       </c>
       <c r="T44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -2306,25 +2312,25 @@
         <v>45492.592499999999</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K45">
         <v>20000</v>
       </c>
       <c r="P45" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q45">
         <v>20000</v>
       </c>
       <c r="T45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -2341,25 +2347,25 @@
         <v>45492.592453703706</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <v>15000</v>
       </c>
       <c r="P46" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -2376,25 +2382,25 @@
         <v>45492.592453703706</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>20000</v>
       </c>
       <c r="P47" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q47">
         <v>20000</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U47" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -2411,22 +2417,22 @@
         <v>45492.592407407406</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>15000</v>
       </c>
       <c r="P48" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U48">
         <v>2</v>
@@ -2446,25 +2452,25 @@
         <v>45492.592280092591</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K49">
         <v>15000</v>
       </c>
       <c r="P49" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q49">
         <v>15000</v>
       </c>
       <c r="T49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -2481,19 +2487,22 @@
         <v>45492.587453703702</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K50">
         <v>20000</v>
       </c>
+      <c r="N50" t="s">
+        <v>28</v>
+      </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -2510,25 +2519,25 @@
         <v>45492.587361111109</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K51">
         <v>20000</v>
       </c>
       <c r="N51" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O51">
         <v>20000</v>
       </c>
       <c r="T51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -2545,22 +2554,22 @@
         <v>45492.587152777778</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K52">
         <v>20000</v>
       </c>
       <c r="N52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -2577,25 +2586,25 @@
         <v>45492.587071759262</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K53">
         <v>15000</v>
       </c>
       <c r="N53" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O53">
         <v>15000</v>
       </c>
       <c r="T53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -2612,19 +2621,19 @@
         <v>45492.587002314816</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K54">
         <v>25000</v>
       </c>
       <c r="N54" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U54">
         <v>12</v>
@@ -2644,19 +2653,19 @@
         <v>45492.586967592593</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K55">
         <v>19999</v>
       </c>
       <c r="N55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U55">
         <v>12</v>
@@ -2676,25 +2685,25 @@
         <v>45492.586944444447</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K56">
         <v>39900</v>
       </c>
       <c r="N56" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -2711,25 +2720,25 @@
         <v>45492.586921296293</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K57">
         <v>17000</v>
       </c>
       <c r="N57" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="O57">
         <v>18000</v>
       </c>
       <c r="T57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -2746,22 +2755,22 @@
         <v>45492.586863425924</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K58">
         <v>15000</v>
       </c>
       <c r="N58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -2778,22 +2787,22 @@
         <v>45492.586863425924</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K59">
         <v>25000</v>
       </c>
       <c r="N59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U59" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -2810,22 +2819,22 @@
         <v>45492.581759259258</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K60">
         <v>30000</v>
       </c>
       <c r="L60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T60" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U60" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -2842,25 +2851,25 @@
         <v>45492.581620370373</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K61">
         <v>50000</v>
       </c>
       <c r="L61" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M61">
         <v>20000</v>
       </c>
       <c r="T61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U61" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -2877,22 +2886,22 @@
         <v>45492.58</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K62">
         <v>40000</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U62" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -2909,19 +2918,19 @@
         <v>45492.579548611109</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K63">
         <v>50000</v>
       </c>
       <c r="L63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U63">
         <v>12</v>
@@ -2941,22 +2950,22 @@
         <v>45492.579363425924</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K64">
         <v>20000</v>
       </c>
       <c r="L64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U64" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -2973,22 +2982,22 @@
         <v>45492.579270833332</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K65">
         <v>20000</v>
       </c>
       <c r="L65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T65" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -3005,19 +3014,19 @@
         <v>45492.579143518517</v>
       </c>
       <c r="E66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K66">
         <v>15000</v>
       </c>
       <c r="L66" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U66">
         <v>12</v>
@@ -3037,25 +3046,25 @@
         <v>45492.578993055555</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K67">
         <v>10000</v>
       </c>
       <c r="L67" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M67">
         <v>10000</v>
       </c>
       <c r="T67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -3072,22 +3081,22 @@
         <v>45492.578981481478</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K68">
         <v>30000</v>
       </c>
       <c r="L68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -3104,25 +3113,26 @@
         <v>45492.578703703701</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K69">
         <v>60000</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="T69" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>